--- a/Code/Test/test_sheet.xlsx
+++ b/Code/Test/test_sheet.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Documents\GitHub\Sample-Project-CS4273\Code\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F62270-9108-4ABB-80B0-B28708F84416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34874294-558D-43C0-A57B-4ABFD7A1B60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Đăng nhập" sheetId="6" r:id="rId1"/>
+    <sheet name="..." sheetId="6" r:id="rId1"/>
     <sheet name="Cập nhật sản phẩm" sheetId="9" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="83">
   <si>
     <t>Test Case</t>
   </si>
@@ -500,22 +500,40 @@
     <t>calculate_sum function</t>
   </si>
   <si>
-    <t>[1,2,3]</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>find_divisor function</t>
   </si>
   <si>
-    <t>1,3,9</t>
-  </si>
-  <si>
-    <t>9,3,1</t>
-  </si>
-  <si>
     <t>check_perfect_number function</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[1, 3]</t>
+  </si>
+  <si>
+    <t>[9, 3, 1]</t>
+  </si>
+  <si>
+    <t>[ ]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>[2, 1]</t>
+  </si>
+  <si>
+    <t>[-5, 2, 2, 1]</t>
   </si>
 </sst>
 </file>
@@ -576,7 +594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,12 +625,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDB9B9"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -821,13 +845,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -950,6 +983,28 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -959,41 +1014,41 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1002,7 +1057,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1015,9 +1073,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFDB9B9"/>
       <color rgb="FFCC0000"/>
-      <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1294,34 +1352,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="25.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-    </row>
-    <row r="2" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +1390,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1345,7 +1402,7 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1357,7 +1414,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1367,7 +1424,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1376,26 +1433,26 @@
         <v>67</v>
       </c>
       <c r="D6" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-    </row>
-    <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-    </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+    </row>
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -1405,218 +1462,412 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B11" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="72">
         <v>1</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="72">
+        <v>10</v>
+      </c>
+      <c r="E13" s="72">
+        <v>10</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="72">
+        <v>2</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="72">
+        <v>1</v>
+      </c>
+      <c r="E14" s="72">
+        <v>1</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="72">
+        <v>3</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="72">
+        <v>0</v>
+      </c>
+      <c r="E15" s="72">
+        <v>0</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="72">
+        <v>4</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="72">
+        <v>0</v>
+      </c>
+      <c r="E16" s="72">
+        <v>0</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="45"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="20">
+        <v>15.2</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" s="46"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="46"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="72">
+        <v>1</v>
+      </c>
+      <c r="B21" s="72">
+        <v>9</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="72">
+        <v>2</v>
+      </c>
+      <c r="B22" s="72">
+        <v>2</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="72">
+        <v>3</v>
+      </c>
+      <c r="B23" s="72">
+        <v>1</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="72">
+        <v>4</v>
+      </c>
+      <c r="B24" s="72">
+        <v>0</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="48"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="20">
+        <v>15.3</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="41"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="8">
-        <v>7</v>
-      </c>
-      <c r="E12" s="8">
-        <v>7</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="20">
-        <v>15.2</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="41"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F28" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+    <row r="29" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="72">
         <v>1</v>
       </c>
-      <c r="B17" s="8">
-        <v>9</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="19" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="20">
-        <v>15.3</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-    </row>
-    <row r="20" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="B29" s="72">
+        <v>6</v>
+      </c>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="72">
+        <v>2</v>
+      </c>
+      <c r="B30" s="72">
         <v>17</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="C30" s="72"/>
+      <c r="D30" s="72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="72">
+        <v>3</v>
+      </c>
+      <c r="B31" s="72">
         <v>1</v>
       </c>
-      <c r="B22" s="8">
-        <v>6</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="8" t="b">
+      <c r="C31" s="72"/>
+      <c r="D31" s="72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="72">
+        <v>4</v>
+      </c>
+      <c r="B32" s="72">
+        <v>0</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="72" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="10"/>
+      <c r="F32" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="5:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1645,20 +1896,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -1731,20 +1982,20 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
@@ -1769,12 +2020,12 @@
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -1783,12 +2034,12 @@
       <c r="A13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1955,12 +2206,12 @@
       <c r="A22" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
@@ -2129,20 +2380,20 @@
     </row>
     <row r="30" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
     </row>
     <row r="31" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
@@ -2151,12 +2402,12 @@
       <c r="A32" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
@@ -2165,12 +2416,12 @@
       <c r="A33" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="60"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
@@ -2347,20 +2598,20 @@
     </row>
     <row r="41" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
@@ -2369,12 +2620,12 @@
       <c r="A43" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
@@ -2383,12 +2634,12 @@
       <c r="A44" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="60"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="65"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
@@ -2567,10 +2818,10 @@
     </row>
     <row r="52" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
@@ -2627,13 +2878,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
@@ -2643,6 +2887,13 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
